--- a/relabelling_iter.xlsx
+++ b/relabelling_iter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\travail\Documents\Cesure\CEA\Trend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B699D520-4561-401B-9CA9-CF17C99D2E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FFCAE1-D7A8-4EA3-A307-ACEEAE39C99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{03062D22-EABC-480A-A313-074E979F6B88}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>nb_iter</t>
   </si>
@@ -50,7 +50,34 @@
     <t>10 models with unanimity</t>
   </si>
   <si>
-    <t>8 models with democracy</t>
+    <t>totals false labels</t>
+  </si>
+  <si>
+    <t>total changes</t>
+  </si>
+  <si>
+    <t>good changes</t>
+  </si>
+  <si>
+    <t>bad_changes</t>
+  </si>
+  <si>
+    <t>nb_clean_labels</t>
+  </si>
+  <si>
+    <t>percentage corrected</t>
+  </si>
+  <si>
+    <t>labels_to_correct</t>
+  </si>
+  <si>
+    <t>5 models with democracy</t>
+  </si>
+  <si>
+    <t>cumul good changes</t>
+  </si>
+  <si>
+    <t>cumul bad changes</t>
   </si>
 </sst>
 </file>
@@ -140,8 +167,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Relabellisation</a:t>
+              <a:t>Relabellisation for 5 models with</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> democracy</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -184,7 +216,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>10 models with unanimity</c:v>
+            <c:v>Labels corrected</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -200,10 +232,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$B$1:$L$1</c:f>
+              <c:f>Feuil1!$B$1:$I$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -227,57 +259,39 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$3:$L$3</c:f>
+              <c:f>Feuil1!$B$18:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23113207547169812</c:v>
+                  <c:v>374</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27044025157232704</c:v>
+                  <c:v>383</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27515723270440251</c:v>
+                  <c:v>412</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.30974842767295596</c:v>
+                  <c:v>425</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.31761006289308175</c:v>
+                  <c:v>443</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.32075471698113206</c:v>
+                  <c:v>448</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.31761006289308175</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.31761006289308175</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.3191823899371069</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.31761006289308175</c:v>
+                  <c:v>457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -285,7 +299,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-7473-44FF-9E05-885D8583009B}"/>
+              <c16:uniqueId val="{00000000-6601-4767-8282-8261FE3F4F6C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -293,7 +307,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>8 models with democracy</c:v>
+            <c:v>Labels tainted</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -307,9 +321,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$B$5:$I$5</c:f>
+              <c:f>Feuil1!$B$1:$I$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -317,25 +331,58 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16823899371069181</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16194968553459119</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10849056603773585</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10534591194968554</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.5471698113207544E-2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.9748427672955975E-2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.8742138364779877E-2</c:v>
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$20:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>426</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -343,7 +390,98 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-7473-44FF-9E05-885D8583009B}"/>
+              <c16:uniqueId val="{00000001-6601-4767-8282-8261FE3F4F6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>False labels</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$21:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>636</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>567</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>569</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>598</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>605</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4871-4A17-817A-7AD977972DC9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -515,7 +653,734 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Pourcentage of label corrected</a:t>
+                  <a:t>numble of samples relabelled</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1790767488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Relabellisation for 10 models with</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> unanimity</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Labels corrected</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$7:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>338</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A099-4356-8573-CF5253C3F939}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Labels tainted</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$9:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>136</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A099-4356-8573-CF5253C3F939}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>False labels</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$10:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>636</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>434</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7847-46CB-9D06-438F52B29C3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1790767488"/>
+        <c:axId val="1790765408"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1790767488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>number of iteration</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.3832211529114416"/>
+              <c:y val="0.77277704870224551"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1790765408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1790765408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>numble of samples</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -707,6 +1572,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1223,20 +2128,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1256,6 +2677,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20BB9318-0C8B-493B-B63A-57C1133C00A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1561,10 +3020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1739B22C-2AF9-4E2E-9836-E8E2627FF77F}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:M26"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1612,240 +3071,871 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>6411</v>
+        <v>7047</v>
       </c>
       <c r="C2">
-        <v>6558</v>
+        <v>6844</v>
       </c>
       <c r="D2">
-        <v>6583</v>
+        <v>7010</v>
       </c>
       <c r="E2">
-        <v>6586</v>
+        <v>7022</v>
       </c>
       <c r="F2">
-        <v>6608</v>
+        <v>6985</v>
       </c>
       <c r="G2">
-        <v>6613</v>
+        <v>6988</v>
       </c>
       <c r="H2">
-        <v>6615</v>
+        <v>7021</v>
       </c>
       <c r="I2">
-        <v>6613</v>
+        <v>7035</v>
       </c>
       <c r="J2">
-        <v>6613</v>
+        <v>7037</v>
       </c>
       <c r="K2">
-        <v>6614</v>
+        <v>7026</v>
       </c>
       <c r="L2">
-        <v>6613</v>
+        <v>7028</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
       <c r="B3">
-        <f t="shared" ref="B3:L3" si="0">(B2 - B25)/B26</f>
-        <v>0</v>
+        <v>6411</v>
       </c>
       <c r="C3">
-        <f t="shared" si="0"/>
-        <v>0.23113207547169812</v>
+        <v>6558</v>
       </c>
       <c r="D3">
-        <f t="shared" si="0"/>
-        <v>0.27044025157232704</v>
+        <v>6583</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
-        <v>0.27515723270440251</v>
+        <v>6586</v>
       </c>
       <c r="F3">
-        <f t="shared" si="0"/>
-        <v>0.30974842767295596</v>
+        <v>6608</v>
       </c>
       <c r="G3">
-        <f t="shared" si="0"/>
-        <v>0.31761006289308175</v>
+        <v>6613</v>
       </c>
       <c r="H3">
-        <f t="shared" si="0"/>
-        <v>0.32075471698113206</v>
+        <v>6615</v>
       </c>
       <c r="I3">
-        <f t="shared" si="0"/>
-        <v>0.31761006289308175</v>
+        <v>6613</v>
       </c>
       <c r="J3">
-        <f t="shared" si="0"/>
-        <v>0.31761006289308175</v>
+        <v>6613</v>
       </c>
       <c r="K3">
-        <f t="shared" si="0"/>
-        <v>0.3191823899371069</v>
+        <v>6614</v>
       </c>
       <c r="L3">
-        <f t="shared" si="0"/>
-        <v>0.31761006289308175</v>
+        <v>6613</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>6411</v>
+        <f>(B3 - B32)/B33</f>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>6518</v>
+        <f>(C3 - C32)/C33</f>
+        <v>0.23113207547169812</v>
       </c>
       <c r="D4">
-        <v>6514</v>
+        <f>(D3 - D32)/D33</f>
+        <v>0.27044025157232704</v>
       </c>
       <c r="E4">
-        <v>6480</v>
+        <f>(E3 - E32)/E33</f>
+        <v>0.27515723270440251</v>
       </c>
       <c r="F4">
-        <v>6478</v>
+        <f>(F3 - F32)/F33</f>
+        <v>0.30974842767295596</v>
       </c>
       <c r="G4">
-        <v>6459</v>
+        <f>(G3 - G32)/G33</f>
+        <v>0.31761006289308175</v>
       </c>
       <c r="H4">
-        <v>6449</v>
+        <f>(H3 - H32)/H33</f>
+        <v>0.32075471698113206</v>
       </c>
       <c r="I4">
-        <v>6442</v>
+        <f>(I3 - I32)/I33</f>
+        <v>0.31761006289308175</v>
+      </c>
+      <c r="J4">
+        <f>(J3 - J32)/J33</f>
+        <v>0.31761006289308175</v>
+      </c>
+      <c r="K4">
+        <f>(K3 - K32)/K33</f>
+        <v>0.3191823899371069</v>
+      </c>
+      <c r="L4">
+        <f>(L3 - L32)/L33</f>
+        <v>0.31761006289308175</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
       <c r="B5">
-        <f>(B4-B25)/B26</f>
+        <f>B34 - B2</f>
         <v>0</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:I5" si="1">(C4-C25)/C26</f>
+        <f>C34 - C2</f>
+        <v>203</v>
+      </c>
+      <c r="D5">
+        <f>D34 - D2</f>
+        <v>37</v>
+      </c>
+      <c r="E5">
+        <f>E34 - E2</f>
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <f>F34 - F2</f>
+        <v>62</v>
+      </c>
+      <c r="G5">
+        <f>G34 - G2</f>
+        <v>59</v>
+      </c>
+      <c r="H5">
+        <f>H34 - H2</f>
+        <v>26</v>
+      </c>
+      <c r="I5">
+        <f>I34 - I2</f>
+        <v>12</v>
+      </c>
+      <c r="J5">
+        <f>J34 - J2</f>
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <f>K34 - K2</f>
+        <v>21</v>
+      </c>
+      <c r="L5">
+        <f>L34 - L2</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <f>B34 - B2</f>
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f>((C34 - C2) + (C3 - B3))/2</f>
+        <v>175</v>
+      </c>
+      <c r="D6">
+        <f>((D34 - D2) + (D3 - C3))/2</f>
+        <v>31</v>
+      </c>
+      <c r="E6">
+        <f>((E34 - E2) + (E3 - D3))/2</f>
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <f>((F34 - F2) + (F3 - E3))/2</f>
+        <v>42</v>
+      </c>
+      <c r="G6">
+        <f>((G34 - G2) + (G3 - F3))/2</f>
+        <v>32</v>
+      </c>
+      <c r="H6">
+        <f>((H34 - H2) + (H3 - G3))/2</f>
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <f>((I34 - I2) + (I3 - H3))/2</f>
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <f>((J34 - J2) + (J3 - I3))/2</f>
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <f>((K34 - K2) + (K3 - J3))/2</f>
+        <v>11</v>
+      </c>
+      <c r="L6">
+        <f>((L34 - L2) + (L3 - K3))/2</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <f>B6</f>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f>SUM($B$6:C6)</f>
+        <v>175</v>
+      </c>
+      <c r="D7">
+        <f>SUM($B$6:D6)</f>
+        <v>206</v>
+      </c>
+      <c r="E7">
+        <f>SUM($B$6:E6)</f>
+        <v>220</v>
+      </c>
+      <c r="F7">
+        <f>SUM($B$6:F6)</f>
+        <v>262</v>
+      </c>
+      <c r="G7">
+        <f>SUM($B$6:G6)</f>
+        <v>294</v>
+      </c>
+      <c r="H7">
+        <f>SUM($B$6:H6)</f>
+        <v>308</v>
+      </c>
+      <c r="I7">
+        <f>SUM($B$6:I6)</f>
+        <v>313</v>
+      </c>
+      <c r="J7">
+        <f>SUM($B$6:J6)</f>
+        <v>318</v>
+      </c>
+      <c r="K7">
+        <f>SUM($B$6:K6)</f>
+        <v>329</v>
+      </c>
+      <c r="L7">
+        <f>SUM($B$6:L6)</f>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f>B5-B6</f>
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:L8" si="0">C5-C6</f>
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <f>SUM($B$8:C$8)</f>
+        <v>28</v>
+      </c>
+      <c r="D9">
+        <f>SUM($B$8:D$8)</f>
+        <v>34</v>
+      </c>
+      <c r="E9">
+        <f>SUM($B$8:E$8)</f>
+        <v>45</v>
+      </c>
+      <c r="F9">
+        <f>SUM($B$8:F$8)</f>
+        <v>65</v>
+      </c>
+      <c r="G9">
+        <f>SUM($B$8:G$8)</f>
+        <v>92</v>
+      </c>
+      <c r="H9">
+        <f>SUM($B$8:H$8)</f>
+        <v>104</v>
+      </c>
+      <c r="I9">
+        <f>SUM($B$8:I$8)</f>
+        <v>111</v>
+      </c>
+      <c r="J9">
+        <f>SUM($B$8:J$8)</f>
+        <v>116</v>
+      </c>
+      <c r="K9">
+        <f>SUM($B$8:K$8)</f>
+        <v>126</v>
+      </c>
+      <c r="L9">
+        <f>SUM($B$8:L$8)</f>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <f>B34-B3</f>
+        <v>636</v>
+      </c>
+      <c r="C10">
+        <f>C34-C3</f>
+        <v>489</v>
+      </c>
+      <c r="D10">
+        <f>D34-D3</f>
+        <v>464</v>
+      </c>
+      <c r="E10">
+        <f>E34-E3</f>
+        <v>461</v>
+      </c>
+      <c r="F10">
+        <f>F34-F3</f>
+        <v>439</v>
+      </c>
+      <c r="G10">
+        <f>G34-G3</f>
+        <v>434</v>
+      </c>
+      <c r="H10">
+        <f>H34-H3</f>
+        <v>432</v>
+      </c>
+      <c r="I10">
+        <f>I34-I3</f>
+        <v>434</v>
+      </c>
+      <c r="J10">
+        <f>J34-J3</f>
+        <v>434</v>
+      </c>
+      <c r="K10">
+        <f>K34-K3</f>
+        <v>433</v>
+      </c>
+      <c r="L10">
+        <f>L34-L3</f>
+        <v>434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>7047</v>
+      </c>
+      <c r="C13">
+        <v>6406</v>
+      </c>
+      <c r="D13">
+        <v>7025</v>
+      </c>
+      <c r="E13">
+        <v>6955</v>
+      </c>
+      <c r="F13">
+        <v>7019</v>
+      </c>
+      <c r="G13">
+        <v>6992</v>
+      </c>
+      <c r="H13">
+        <v>7027</v>
+      </c>
+      <c r="I13">
+        <v>7022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <f>B3-B35</f>
+        <v>6411</v>
+      </c>
+      <c r="C14">
+        <v>6518</v>
+      </c>
+      <c r="D14">
+        <v>6514</v>
+      </c>
+      <c r="E14">
+        <v>6480</v>
+      </c>
+      <c r="F14">
+        <v>6478</v>
+      </c>
+      <c r="G14">
+        <v>6459</v>
+      </c>
+      <c r="H14">
+        <v>6449</v>
+      </c>
+      <c r="I14">
+        <v>6442</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <f>B6-B37</f>
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f>(C14-C32)/C33</f>
         <v>0.16823899371069181</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
+      <c r="D15">
+        <f>(D14-D32)/D33</f>
         <v>0.16194968553459119</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
+      <c r="E15">
+        <f>(E14-E32)/E33</f>
         <v>0.10849056603773585</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
+      <c r="F15">
+        <f>(F14-F32)/F33</f>
         <v>0.10534591194968554</v>
       </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
+      <c r="G15">
+        <f>(G14-G32)/G33</f>
         <v>7.5471698113207544E-2</v>
       </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
+      <c r="H15">
+        <f>(H14-H32)/H33</f>
         <v>5.9748427672955975E-2</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
+      <c r="I15">
+        <f>(I14-I32)/I33</f>
         <v>4.8742138364779877E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <f>B34-B13</f>
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <f>C34-C13</f>
+        <v>641</v>
+      </c>
+      <c r="D16">
+        <f>D34-D13</f>
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <f>E34-E13</f>
+        <v>92</v>
+      </c>
+      <c r="F16">
+        <f>F34-F13</f>
+        <v>28</v>
+      </c>
+      <c r="G16">
+        <f>G34-G13</f>
+        <v>55</v>
+      </c>
+      <c r="H16">
+        <f>H34-H13</f>
+        <v>20</v>
+      </c>
+      <c r="I16">
+        <f>I34-I13</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <f>((C34 - C13) + (C14 - B14))/2</f>
+        <v>374</v>
+      </c>
+      <c r="D17">
+        <f>((D34 - D13) + (D14 - C14))/2</f>
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <f>((E34 - E13) + (E14 - D14))/2</f>
+        <v>29</v>
+      </c>
+      <c r="F17">
+        <f>((F34 - F13) + (F14 - E14))/2</f>
+        <v>13</v>
+      </c>
+      <c r="G17">
+        <f>((G34 - G13) + (G14 - F14))/2</f>
+        <v>18</v>
+      </c>
+      <c r="H17">
+        <f>((H34 - H13) + (H14 - G14))/2</f>
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <f>((I34 - I13) + (I14 - H14))/2</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <f>B17</f>
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <f>SUM($B$17:C17)</f>
+        <v>374</v>
+      </c>
+      <c r="D18">
+        <f>SUM($B$17:D17)</f>
+        <v>383</v>
+      </c>
+      <c r="E18">
+        <f>SUM($B$17:E17)</f>
+        <v>412</v>
+      </c>
+      <c r="F18">
+        <f>SUM($B$17:F17)</f>
+        <v>425</v>
+      </c>
+      <c r="G18">
+        <f>SUM($B$17:G17)</f>
+        <v>443</v>
+      </c>
+      <c r="H18">
+        <f>SUM($B$17:H17)</f>
+        <v>448</v>
+      </c>
+      <c r="I18">
+        <f>SUM($B$17:I17)</f>
+        <v>457</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <f>C16-C17</f>
+        <v>267</v>
+      </c>
+      <c r="D19">
+        <f>D16-D17</f>
+        <v>13</v>
+      </c>
+      <c r="E19">
+        <f>E16-E17</f>
+        <v>63</v>
+      </c>
+      <c r="F19">
+        <f>F16-F17</f>
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <f>G16-G17</f>
+        <v>37</v>
+      </c>
+      <c r="H19">
+        <f>H16-H17</f>
+        <v>15</v>
+      </c>
+      <c r="I19">
+        <f>I16-I17</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <f>SUM($B$19:C$19)</f>
+        <v>267</v>
+      </c>
+      <c r="D20">
+        <f>SUM($B$19:D$19)</f>
+        <v>280</v>
+      </c>
+      <c r="E20">
+        <f>SUM($B$19:E$19)</f>
+        <v>343</v>
+      </c>
+      <c r="F20">
+        <f>SUM($B$19:F$19)</f>
+        <v>358</v>
+      </c>
+      <c r="G20">
+        <f>SUM($B$19:G$19)</f>
+        <v>395</v>
+      </c>
+      <c r="H20">
+        <f>SUM($B$19:H$19)</f>
+        <v>410</v>
+      </c>
+      <c r="I20">
+        <f>SUM($B$19:I$19)</f>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <f>B34-B14</f>
+        <v>636</v>
+      </c>
+      <c r="C21">
+        <f>C34-C14</f>
+        <v>529</v>
+      </c>
+      <c r="D21">
+        <f>D34-D14</f>
+        <v>533</v>
+      </c>
+      <c r="E21">
+        <f>E34-E14</f>
+        <v>567</v>
+      </c>
+      <c r="F21">
+        <f>F34-F14</f>
+        <v>569</v>
+      </c>
+      <c r="G21">
+        <f>G34-G14</f>
+        <v>588</v>
+      </c>
+      <c r="H21">
+        <f>H34-H14</f>
+        <v>598</v>
+      </c>
+      <c r="I21">
+        <f>I34-I14</f>
+        <v>605</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M30">
+        <v>6411</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M31">
+        <f t="shared" ref="C31:M33" si="1">7047-6411</f>
+        <v>636</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>1</v>
       </c>
-      <c r="B25">
+      <c r="B32">
         <v>6411</v>
       </c>
-      <c r="C25">
+      <c r="C32">
         <v>6411</v>
       </c>
-      <c r="D25">
+      <c r="D32">
         <v>6411</v>
       </c>
-      <c r="E25">
+      <c r="E32">
         <v>6411</v>
       </c>
-      <c r="F25">
+      <c r="F32">
         <v>6411</v>
       </c>
-      <c r="G25">
+      <c r="G32">
         <v>6411</v>
       </c>
-      <c r="H25">
+      <c r="H32">
         <v>6411</v>
       </c>
-      <c r="I25">
+      <c r="I32">
         <v>6411</v>
       </c>
-      <c r="J25">
+      <c r="J32">
         <v>6411</v>
       </c>
-      <c r="K25">
+      <c r="K32">
         <v>6411</v>
       </c>
-      <c r="L25">
+      <c r="L32">
         <v>6411</v>
       </c>
-      <c r="M25">
-        <v>6411</v>
+      <c r="M32">
+        <v>7047</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33">
         <f>7047-6411</f>
         <v>636</v>
       </c>
-      <c r="C26">
-        <f t="shared" ref="C26:M26" si="2">7047-6411</f>
+      <c r="C33">
+        <f t="shared" si="1"/>
         <v>636</v>
       </c>
-      <c r="D26">
-        <f t="shared" si="2"/>
+      <c r="D33">
+        <f t="shared" si="1"/>
         <v>636</v>
       </c>
-      <c r="E26">
-        <f t="shared" si="2"/>
+      <c r="E33">
+        <f t="shared" si="1"/>
         <v>636</v>
       </c>
-      <c r="F26">
-        <f t="shared" si="2"/>
+      <c r="F33">
+        <f t="shared" si="1"/>
         <v>636</v>
       </c>
-      <c r="G26">
-        <f t="shared" si="2"/>
+      <c r="G33">
+        <f t="shared" si="1"/>
         <v>636</v>
       </c>
-      <c r="H26">
-        <f t="shared" si="2"/>
+      <c r="H33">
+        <f t="shared" si="1"/>
         <v>636</v>
       </c>
-      <c r="I26">
-        <f t="shared" si="2"/>
+      <c r="I33">
+        <f t="shared" si="1"/>
         <v>636</v>
       </c>
-      <c r="J26">
-        <f t="shared" si="2"/>
+      <c r="J33">
+        <f t="shared" si="1"/>
         <v>636</v>
       </c>
-      <c r="K26">
-        <f t="shared" si="2"/>
+      <c r="K33">
+        <f t="shared" si="1"/>
         <v>636</v>
       </c>
-      <c r="L26">
-        <f t="shared" si="2"/>
+      <c r="L33">
+        <f t="shared" si="1"/>
         <v>636</v>
       </c>
-      <c r="M26">
-        <f t="shared" si="2"/>
-        <v>636</v>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>7047</v>
+      </c>
+      <c r="C34">
+        <v>7047</v>
+      </c>
+      <c r="D34">
+        <v>7047</v>
+      </c>
+      <c r="E34">
+        <v>7047</v>
+      </c>
+      <c r="F34">
+        <v>7047</v>
+      </c>
+      <c r="G34">
+        <v>7047</v>
+      </c>
+      <c r="H34">
+        <v>7047</v>
+      </c>
+      <c r="I34">
+        <v>7047</v>
+      </c>
+      <c r="J34">
+        <v>7047</v>
+      </c>
+      <c r="K34">
+        <v>7047</v>
+      </c>
+      <c r="L34">
+        <v>7047</v>
       </c>
     </row>
   </sheetData>
